--- a/results/1-2021/projections.xlsx
+++ b/results/1-2021/projections.xlsx
@@ -1076,7 +1076,7 @@
         <v>129.9</v>
       </c>
       <c r="AR2">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AS2">
         <v>4.7</v>
@@ -1255,7 +1255,7 @@
         <v>134.1</v>
       </c>
       <c r="AR3">
-        <v>5228</v>
+        <v>5.228</v>
       </c>
       <c r="AS3">
         <v>4.8</v>
@@ -1434,7 +1434,7 @@
         <v>140.1</v>
       </c>
       <c r="AR4">
-        <v>4816</v>
+        <v>4.816</v>
       </c>
       <c r="AS4">
         <v>4.7</v>
@@ -1613,7 +1613,7 @@
         <v>144.3</v>
       </c>
       <c r="AR5">
-        <v>4900</v>
+        <v>4.9</v>
       </c>
       <c r="AS5">
         <v>4.8</v>
@@ -1792,7 +1792,7 @@
         <v>149.1</v>
       </c>
       <c r="AR6">
-        <v>5464</v>
+        <v>5.464</v>
       </c>
       <c r="AS6">
         <v>4.7</v>
@@ -1971,7 +1971,7 @@
         <v>153.6</v>
       </c>
       <c r="AR7">
-        <v>6312</v>
+        <v>6.312</v>
       </c>
       <c r="AS7">
         <v>4.8</v>
@@ -2150,7 +2150,7 @@
         <v>156.9</v>
       </c>
       <c r="AR8">
-        <v>5756</v>
+        <v>5.756</v>
       </c>
       <c r="AS8">
         <v>4.5</v>
@@ -2329,7 +2329,7 @@
         <v>161</v>
       </c>
       <c r="AR9">
-        <v>5644</v>
+        <v>5.644</v>
       </c>
       <c r="AS9">
         <v>4.6</v>
@@ -2508,7 +2508,7 @@
         <v>165.7</v>
       </c>
       <c r="AR10">
-        <v>5668</v>
+        <v>5.668</v>
       </c>
       <c r="AS10">
         <v>6.1</v>
@@ -2687,7 +2687,7 @@
         <v>167.9</v>
       </c>
       <c r="AR11">
-        <v>5216</v>
+        <v>5.216</v>
       </c>
       <c r="AS11">
         <v>6.2</v>
@@ -2866,7 +2866,7 @@
         <v>172.5</v>
       </c>
       <c r="AR12">
-        <v>6724</v>
+        <v>6.724</v>
       </c>
       <c r="AS12">
         <v>7.1</v>
@@ -3045,7 +3045,7 @@
         <v>176.8</v>
       </c>
       <c r="AR13">
-        <v>5700</v>
+        <v>5.7</v>
       </c>
       <c r="AS13">
         <v>7</v>
@@ -3224,7 +3224,7 @@
         <v>181.7</v>
       </c>
       <c r="AR14">
-        <v>5740</v>
+        <v>5.74</v>
       </c>
       <c r="AS14">
         <v>5.9</v>
@@ -3403,7 +3403,7 @@
         <v>185.7</v>
       </c>
       <c r="AR15">
-        <v>6208</v>
+        <v>6.208</v>
       </c>
       <c r="AS15">
         <v>5.6</v>
@@ -3582,7 +3582,7 @@
         <v>190</v>
       </c>
       <c r="AR16">
-        <v>5344</v>
+        <v>5.344</v>
       </c>
       <c r="AS16">
         <v>4.6</v>
@@ -3761,7 +3761,7 @@
         <v>195.9</v>
       </c>
       <c r="AR17">
-        <v>5920</v>
+        <v>5.92</v>
       </c>
       <c r="AS17">
         <v>4.5</v>
@@ -3940,7 +3940,7 @@
         <v>201.1</v>
       </c>
       <c r="AR18">
-        <v>7760</v>
+        <v>7.76</v>
       </c>
       <c r="AS18">
         <v>3.5</v>
@@ -4119,7 +4119,7 @@
         <v>210.1</v>
       </c>
       <c r="AR19">
-        <v>8572</v>
+        <v>8.571999999999999</v>
       </c>
       <c r="AS19">
         <v>2.8</v>
@@ -4298,7 +4298,7 @@
         <v>217</v>
       </c>
       <c r="AR20">
-        <v>6496</v>
+        <v>6.496</v>
       </c>
       <c r="AS20">
         <v>3.1</v>
@@ -4477,7 +4477,7 @@
         <v>223.7</v>
       </c>
       <c r="AR21">
-        <v>7840</v>
+        <v>7.84</v>
       </c>
       <c r="AS21">
         <v>3.5</v>
@@ -4656,7 +4656,7 @@
         <v>235.9</v>
       </c>
       <c r="AR22">
-        <v>8652</v>
+        <v>8.651999999999999</v>
       </c>
       <c r="AS22">
         <v>4.1</v>
@@ -4835,7 +4835,7 @@
         <v>240.3</v>
       </c>
       <c r="AR23">
-        <v>7804</v>
+        <v>7.804</v>
       </c>
       <c r="AS23">
         <v>4.1</v>
@@ -5014,7 +5014,7 @@
         <v>246.6</v>
       </c>
       <c r="AR24">
-        <v>10772</v>
+        <v>10.772</v>
       </c>
       <c r="AS24">
         <v>4.4</v>
@@ -5193,7 +5193,7 @@
         <v>254.2</v>
       </c>
       <c r="AR25">
-        <v>10424</v>
+        <v>10.424</v>
       </c>
       <c r="AS25">
         <v>4.8</v>
@@ -5372,7 +5372,7 @@
         <v>260.3</v>
       </c>
       <c r="AR26">
-        <v>10012</v>
+        <v>10.012</v>
       </c>
       <c r="AS26">
         <v>5</v>
@@ -5551,7 +5551,7 @@
         <v>259.4</v>
       </c>
       <c r="AR27">
-        <v>9760</v>
+        <v>9.76</v>
       </c>
       <c r="AS27">
         <v>4.7</v>
@@ -5730,7 +5730,7 @@
         <v>261.3</v>
       </c>
       <c r="AR28">
-        <v>10592</v>
+        <v>10.592</v>
       </c>
       <c r="AS28">
         <v>4.9</v>
@@ -5909,7 +5909,7 @@
         <v>263.9</v>
       </c>
       <c r="AR29">
-        <v>11108</v>
+        <v>11.108</v>
       </c>
       <c r="AS29">
         <v>5.3</v>
@@ -6088,7 +6088,7 @@
         <v>271.1</v>
       </c>
       <c r="AR30">
-        <v>10716</v>
+        <v>10.716</v>
       </c>
       <c r="AS30">
         <v>5.6</v>
@@ -6267,7 +6267,7 @@
         <v>278.6</v>
       </c>
       <c r="AR31">
-        <v>10652</v>
+        <v>10.652</v>
       </c>
       <c r="AS31">
         <v>5.7</v>
@@ -6446,7 +6446,7 @@
         <v>282.3</v>
       </c>
       <c r="AR32">
-        <v>11804</v>
+        <v>11.804</v>
       </c>
       <c r="AS32">
         <v>6.2</v>
@@ -6625,7 +6625,7 @@
         <v>287.5</v>
       </c>
       <c r="AR33">
-        <v>10700</v>
+        <v>10.7</v>
       </c>
       <c r="AS33">
         <v>10.1</v>
@@ -6804,7 +6804,7 @@
         <v>292.5</v>
       </c>
       <c r="AR34">
-        <v>10968</v>
+        <v>10.968</v>
       </c>
       <c r="AS34">
         <v>8.5</v>
@@ -6983,7 +6983,7 @@
         <v>306</v>
       </c>
       <c r="AR35">
-        <v>11528</v>
+        <v>11.528</v>
       </c>
       <c r="AS35">
         <v>8.1</v>
@@ -7162,7 +7162,7 @@
         <v>313.5</v>
       </c>
       <c r="AR36">
-        <v>11908</v>
+        <v>11.908</v>
       </c>
       <c r="AS36">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         <v>320.5</v>
       </c>
       <c r="AR37">
-        <v>12528</v>
+        <v>12.528</v>
       </c>
       <c r="AS37">
         <v>10.1</v>
@@ -7520,7 +7520,7 @@
         <v>323.2</v>
       </c>
       <c r="AR38">
-        <v>13592</v>
+        <v>13.592</v>
       </c>
       <c r="AS38">
         <v>8.1</v>
@@ -7699,7 +7699,7 @@
         <v>333.2</v>
       </c>
       <c r="AR39">
-        <v>13048</v>
+        <v>13.048</v>
       </c>
       <c r="AS39">
         <v>8.5</v>
@@ -7878,7 +7878,7 @@
         <v>344.8</v>
       </c>
       <c r="AR40">
-        <v>14292</v>
+        <v>14.292</v>
       </c>
       <c r="AS40">
         <v>7.8</v>
@@ -8057,7 +8057,7 @@
         <v>356.1</v>
       </c>
       <c r="AR41">
-        <v>15752</v>
+        <v>15.752</v>
       </c>
       <c r="AS41">
         <v>8.5</v>
@@ -8236,7 +8236,7 @@
         <v>367.6</v>
       </c>
       <c r="AR42">
-        <v>16260</v>
+        <v>16.26</v>
       </c>
       <c r="AS42">
         <v>8.9</v>
@@ -8415,7 +8415,7 @@
         <v>371.7</v>
       </c>
       <c r="AR43">
-        <v>16536</v>
+        <v>16.536</v>
       </c>
       <c r="AS43">
         <v>9.300000000000001</v>
@@ -8594,7 +8594,7 @@
         <v>379.1</v>
       </c>
       <c r="AR44">
-        <v>15916</v>
+        <v>15.916</v>
       </c>
       <c r="AS44">
         <v>9.699999999999999</v>
@@ -8773,7 +8773,7 @@
         <v>388.1</v>
       </c>
       <c r="AR45">
-        <v>16628</v>
+        <v>16.628</v>
       </c>
       <c r="AS45">
         <v>9.9</v>
@@ -8952,7 +8952,7 @@
         <v>402.6</v>
       </c>
       <c r="AR46">
-        <v>16092</v>
+        <v>16.092</v>
       </c>
       <c r="AS46">
         <v>10.2</v>
@@ -9131,7 +9131,7 @@
         <v>405.3</v>
       </c>
       <c r="AR47">
-        <v>15716</v>
+        <v>15.716</v>
       </c>
       <c r="AS47">
         <v>10.3</v>
@@ -9310,7 +9310,7 @@
         <v>409.8</v>
       </c>
       <c r="AR48">
-        <v>14828</v>
+        <v>14.828</v>
       </c>
       <c r="AS48">
         <v>10.7</v>
@@ -9489,7 +9489,7 @@
         <v>418.5</v>
       </c>
       <c r="AR49">
-        <v>15012</v>
+        <v>15.012</v>
       </c>
       <c r="AS49">
         <v>13.1</v>
@@ -9668,7 +9668,7 @@
         <v>425.5</v>
       </c>
       <c r="AR50">
-        <v>13852</v>
+        <v>13.852</v>
       </c>
       <c r="AS50">
         <v>13.6</v>
@@ -9847,7 +9847,7 @@
         <v>435.4</v>
       </c>
       <c r="AR51">
-        <v>14552</v>
+        <v>14.552</v>
       </c>
       <c r="AS51">
         <v>13.2</v>
@@ -10026,7 +10026,7 @@
         <v>443.4</v>
       </c>
       <c r="AR52">
-        <v>14544</v>
+        <v>14.544</v>
       </c>
       <c r="AS52">
         <v>12.6</v>
@@ -10205,7 +10205,7 @@
         <v>452.9</v>
       </c>
       <c r="AR53">
-        <v>14484</v>
+        <v>14.484</v>
       </c>
       <c r="AS53">
         <v>19</v>
@@ -10384,7 +10384,7 @@
         <v>461.9</v>
       </c>
       <c r="AR54">
-        <v>15900</v>
+        <v>15.9</v>
       </c>
       <c r="AS54">
         <v>19.4</v>
@@ -10563,7 +10563,7 @@
         <v>467.5</v>
       </c>
       <c r="AR55">
-        <v>14200</v>
+        <v>14.2</v>
       </c>
       <c r="AS55">
         <v>21.1</v>
@@ -10742,7 +10742,7 @@
         <v>476.7</v>
       </c>
       <c r="AR56">
-        <v>15904</v>
+        <v>15.904</v>
       </c>
       <c r="AS56">
         <v>21.8</v>
@@ -10921,7 +10921,7 @@
         <v>482.1</v>
       </c>
       <c r="AR57">
-        <v>15768</v>
+        <v>15.768</v>
       </c>
       <c r="AS57">
         <v>21.1</v>
@@ -11100,7 +11100,7 @@
         <v>495.1</v>
       </c>
       <c r="AR58">
-        <v>16556</v>
+        <v>16.556</v>
       </c>
       <c r="AS58">
         <v>20.8</v>
@@ -11279,7 +11279,7 @@
         <v>505.9</v>
       </c>
       <c r="AR59">
-        <v>17236</v>
+        <v>17.236</v>
       </c>
       <c r="AS59">
         <v>20.6</v>
@@ -11458,7 +11458,7 @@
         <v>518.3</v>
       </c>
       <c r="AR60">
-        <v>18092</v>
+        <v>18.092</v>
       </c>
       <c r="AS60">
         <v>20.5</v>
@@ -11637,7 +11637,7 @@
         <v>529.3</v>
       </c>
       <c r="AR61">
-        <v>18824</v>
+        <v>18.824</v>
       </c>
       <c r="AS61">
         <v>20.8</v>
@@ -11816,7 +11816,7 @@
         <v>542.7</v>
       </c>
       <c r="AR62">
-        <v>17044</v>
+        <v>17.044</v>
       </c>
       <c r="AS62">
         <v>20.8</v>
@@ -11995,7 +11995,7 @@
         <v>557.7</v>
       </c>
       <c r="AR63">
-        <v>19408</v>
+        <v>19.408</v>
       </c>
       <c r="AS63">
         <v>20.7</v>
@@ -12174,7 +12174,7 @@
         <v>571.6</v>
       </c>
       <c r="AR64">
-        <v>20036</v>
+        <v>20.036</v>
       </c>
       <c r="AS64">
         <v>21</v>
@@ -12353,7 +12353,7 @@
         <v>582.2</v>
       </c>
       <c r="AR65">
-        <v>21184</v>
+        <v>21.184</v>
       </c>
       <c r="AS65">
         <v>21.7</v>
@@ -12532,7 +12532,7 @@
         <v>595.9</v>
       </c>
       <c r="AR66">
-        <v>19720</v>
+        <v>19.72</v>
       </c>
       <c r="AS66">
         <v>22.8</v>
@@ -12711,7 +12711,7 @@
         <v>605.5</v>
       </c>
       <c r="AR67">
-        <v>20556</v>
+        <v>20.556</v>
       </c>
       <c r="AS67">
         <v>23.9</v>
@@ -12890,7 +12890,7 @@
         <v>616.5</v>
       </c>
       <c r="AR68">
-        <v>21284</v>
+        <v>21.284</v>
       </c>
       <c r="AS68">
         <v>25.1</v>
@@ -13069,7 +13069,7 @@
         <v>626.3</v>
       </c>
       <c r="AR69">
-        <v>18320</v>
+        <v>18.32</v>
       </c>
       <c r="AS69">
         <v>26.5</v>
@@ -13248,7 +13248,7 @@
         <v>637.8</v>
       </c>
       <c r="AR70">
-        <v>18760</v>
+        <v>18.76</v>
       </c>
       <c r="AS70">
         <v>28</v>
@@ -13427,7 +13427,7 @@
         <v>646.9</v>
       </c>
       <c r="AR71">
-        <v>19560</v>
+        <v>19.56</v>
       </c>
       <c r="AS71">
         <v>30.2</v>
@@ -13606,7 +13606,7 @@
         <v>656.4</v>
       </c>
       <c r="AR72">
-        <v>18828</v>
+        <v>18.828</v>
       </c>
       <c r="AS72">
         <v>31</v>
@@ -13785,7 +13785,7 @@
         <v>668.1</v>
       </c>
       <c r="AR73">
-        <v>18696</v>
+        <v>18.696</v>
       </c>
       <c r="AS73">
         <v>30.8</v>
@@ -13964,7 +13964,7 @@
         <v>678.6</v>
       </c>
       <c r="AR74">
-        <v>18972</v>
+        <v>18.972</v>
       </c>
       <c r="AS74">
         <v>30</v>
@@ -14143,7 +14143,7 @@
         <v>693.1</v>
       </c>
       <c r="AR75">
-        <v>19836</v>
+        <v>19.836</v>
       </c>
       <c r="AS75">
         <v>29.5</v>
@@ -14322,7 +14322,7 @@
         <v>703.2</v>
       </c>
       <c r="AR76">
-        <v>20388</v>
+        <v>20.388</v>
       </c>
       <c r="AS76">
         <v>28.9</v>
@@ -14501,7 +14501,7 @@
         <v>720.1</v>
       </c>
       <c r="AR77">
-        <v>19284</v>
+        <v>19.284</v>
       </c>
       <c r="AS77">
         <v>28.2</v>
@@ -14680,7 +14680,7 @@
         <v>736.6</v>
       </c>
       <c r="AR78">
-        <v>20192</v>
+        <v>20.192</v>
       </c>
       <c r="AS78">
         <v>27.6</v>
@@ -14859,7 +14859,7 @@
         <v>755.1</v>
       </c>
       <c r="AR79">
-        <v>19936</v>
+        <v>19.936</v>
       </c>
       <c r="AS79">
         <v>27</v>
@@ -15038,7 +15038,7 @@
         <v>770.4</v>
       </c>
       <c r="AR80">
-        <v>18832</v>
+        <v>18.832</v>
       </c>
       <c r="AS80">
         <v>26.7</v>
@@ -15217,7 +15217,7 @@
         <v>790</v>
       </c>
       <c r="AR81">
-        <v>20492</v>
+        <v>20.492</v>
       </c>
       <c r="AS81">
         <v>26.9</v>
@@ -15396,7 +15396,7 @@
         <v>811.4</v>
       </c>
       <c r="AR82">
-        <v>21448</v>
+        <v>21.448</v>
       </c>
       <c r="AS82">
         <v>26.8</v>
@@ -15575,7 +15575,7 @@
         <v>824.1</v>
       </c>
       <c r="AR83">
-        <v>20184</v>
+        <v>20.184</v>
       </c>
       <c r="AS83">
         <v>26.6</v>
@@ -15754,7 +15754,7 @@
         <v>843.9</v>
       </c>
       <c r="AR84">
-        <v>20508</v>
+        <v>20.508</v>
       </c>
       <c r="AS84">
         <v>26.6</v>
@@ -15933,7 +15933,7 @@
         <v>871</v>
       </c>
       <c r="AR85">
-        <v>21188</v>
+        <v>21.188</v>
       </c>
       <c r="AS85">
         <v>26.6</v>
@@ -16112,7 +16112,7 @@
         <v>881.6</v>
       </c>
       <c r="AR86">
-        <v>21552</v>
+        <v>21.552</v>
       </c>
       <c r="AS86">
         <v>26.7</v>
@@ -16291,7 +16291,7 @@
         <v>901.3</v>
       </c>
       <c r="AR87">
-        <v>21612</v>
+        <v>21.612</v>
       </c>
       <c r="AS87">
         <v>26.8</v>
@@ -16470,7 +16470,7 @@
         <v>919.2</v>
       </c>
       <c r="AR88">
-        <v>21056</v>
+        <v>21.056</v>
       </c>
       <c r="AS88">
         <v>27.1</v>
@@ -16649,7 +16649,7 @@
         <v>947</v>
       </c>
       <c r="AR89">
-        <v>20612</v>
+        <v>20.612</v>
       </c>
       <c r="AS89">
         <v>27.7</v>
@@ -16828,7 +16828,7 @@
         <v>959.3</v>
       </c>
       <c r="AR90">
-        <v>21388</v>
+        <v>21.388</v>
       </c>
       <c r="AS90">
         <v>28.2</v>
@@ -17007,7 +17007,7 @@
         <v>975.2</v>
       </c>
       <c r="AR91">
-        <v>22800</v>
+        <v>22.8</v>
       </c>
       <c r="AS91">
         <v>28.8</v>
@@ -17186,7 +17186,7 @@
         <v>988.2</v>
       </c>
       <c r="AR92">
-        <v>22288</v>
+        <v>22.288</v>
       </c>
       <c r="AS92">
         <v>30</v>
@@ -17365,7 +17365,7 @@
         <v>991.3</v>
       </c>
       <c r="AR93">
-        <v>23064</v>
+        <v>23.064</v>
       </c>
       <c r="AS93">
         <v>31.8</v>
@@ -17550,7 +17550,7 @@
         <v>73.88800000000001</v>
       </c>
       <c r="AR94">
-        <v>21784</v>
+        <v>21.784</v>
       </c>
       <c r="AS94">
         <v>35.1</v>
@@ -17735,7 +17735,7 @@
         <v>76.036</v>
       </c>
       <c r="AR95">
-        <v>22472</v>
+        <v>22.472</v>
       </c>
       <c r="AS95">
         <v>37.2</v>
@@ -17920,7 +17920,7 @@
         <v>80.604</v>
       </c>
       <c r="AR96">
-        <v>24884</v>
+        <v>24.884</v>
       </c>
       <c r="AS96">
         <v>37.3</v>
@@ -18105,7 +18105,7 @@
         <v>84.09999999999999</v>
       </c>
       <c r="AR97">
-        <v>24764</v>
+        <v>24.764</v>
       </c>
       <c r="AS97">
         <v>35.7</v>
@@ -18290,7 +18290,7 @@
         <v>78.94799999999999</v>
       </c>
       <c r="AR98">
-        <v>23632</v>
+        <v>23.632</v>
       </c>
       <c r="AS98">
         <v>33.2</v>
@@ -18475,7 +18475,7 @@
         <v>81.77200000000001</v>
       </c>
       <c r="AR99">
-        <v>23952</v>
+        <v>23.952</v>
       </c>
       <c r="AS99">
         <v>32</v>
@@ -18660,7 +18660,7 @@
         <v>82.892</v>
       </c>
       <c r="AR100">
-        <v>25152</v>
+        <v>25.152</v>
       </c>
       <c r="AS100">
         <v>31.6</v>
@@ -18845,7 +18845,7 @@
         <v>85.54000000000001</v>
       </c>
       <c r="AR101">
-        <v>26476</v>
+        <v>26.476</v>
       </c>
       <c r="AS101">
         <v>31.9</v>
@@ -19030,7 +19030,7 @@
         <v>90.524</v>
       </c>
       <c r="AR102">
-        <v>27744</v>
+        <v>27.744</v>
       </c>
       <c r="AS102">
         <v>33.6</v>
@@ -19215,7 +19215,7 @@
         <v>90.54000000000001</v>
       </c>
       <c r="AR103">
-        <v>28028</v>
+        <v>28.028</v>
       </c>
       <c r="AS103">
         <v>34.3</v>
@@ -19400,7 +19400,7 @@
         <v>89.28</v>
       </c>
       <c r="AR104">
-        <v>26448</v>
+        <v>26.448</v>
       </c>
       <c r="AS104">
         <v>34.8</v>
@@ -19585,7 +19585,7 @@
         <v>87.568</v>
       </c>
       <c r="AR105">
-        <v>26816</v>
+        <v>26.816</v>
       </c>
       <c r="AS105">
         <v>35.2</v>
@@ -19770,7 +19770,7 @@
         <v>88.77200000000001</v>
       </c>
       <c r="AR106">
-        <v>29136</v>
+        <v>29.136</v>
       </c>
       <c r="AS106">
         <v>35.2</v>
@@ -19955,7 +19955,7 @@
         <v>96.376</v>
       </c>
       <c r="AR107">
-        <v>27904</v>
+        <v>27.904</v>
       </c>
       <c r="AS107">
         <v>35.1</v>
@@ -20140,7 +20140,7 @@
         <v>94.872</v>
       </c>
       <c r="AR108">
-        <v>27116</v>
+        <v>27.116</v>
       </c>
       <c r="AS108">
         <v>34.9</v>
@@ -20325,7 +20325,7 @@
         <v>93.892</v>
       </c>
       <c r="AR109">
-        <v>28720</v>
+        <v>28.72</v>
       </c>
       <c r="AS109">
         <v>34.4</v>
@@ -20510,7 +20510,7 @@
         <v>95.98</v>
       </c>
       <c r="AR110">
-        <v>28400</v>
+        <v>28.4</v>
       </c>
       <c r="AS110">
         <v>34</v>
@@ -20695,7 +20695,7 @@
         <v>94.92400000000001</v>
       </c>
       <c r="AR111">
-        <v>29016</v>
+        <v>29.016</v>
       </c>
       <c r="AS111">
         <v>33.2</v>
@@ -20880,7 +20880,7 @@
         <v>97.108</v>
       </c>
       <c r="AR112">
-        <v>29084</v>
+        <v>29.084</v>
       </c>
       <c r="AS112">
         <v>33</v>
@@ -21065,7 +21065,7 @@
         <v>101.384</v>
       </c>
       <c r="AR113">
-        <v>28744</v>
+        <v>28.744</v>
       </c>
       <c r="AS113">
         <v>33.3</v>
@@ -21250,7 +21250,7 @@
         <v>99.444</v>
       </c>
       <c r="AR114">
-        <v>27052</v>
+        <v>27.052</v>
       </c>
       <c r="AS114">
         <v>33.4</v>
@@ -21435,7 +21435,7 @@
         <v>101.608</v>
       </c>
       <c r="AR115">
-        <v>27336</v>
+        <v>27.336</v>
       </c>
       <c r="AS115">
         <v>34.6</v>
@@ -21620,7 +21620,7 @@
         <v>102.26</v>
       </c>
       <c r="AR116">
-        <v>29104</v>
+        <v>29.104</v>
       </c>
       <c r="AS116">
         <v>36.3</v>
@@ -21805,7 +21805,7 @@
         <v>103.952</v>
       </c>
       <c r="AR117">
-        <v>31232</v>
+        <v>31.232</v>
       </c>
       <c r="AS117">
         <v>39.4</v>
@@ -21990,7 +21990,7 @@
         <v>107.1</v>
       </c>
       <c r="AR118">
-        <v>27780</v>
+        <v>27.78</v>
       </c>
       <c r="AS118">
         <v>42</v>
@@ -22175,7 +22175,7 @@
         <v>107.208</v>
       </c>
       <c r="AR119">
-        <v>32192</v>
+        <v>32.192</v>
       </c>
       <c r="AS119">
         <v>44.6</v>
@@ -22360,7 +22360,7 @@
         <v>113.428</v>
       </c>
       <c r="AR120">
-        <v>34264</v>
+        <v>34.264</v>
       </c>
       <c r="AS120">
         <v>46</v>
@@ -22545,7 +22545,7 @@
         <v>114.62</v>
       </c>
       <c r="AR121">
-        <v>34124</v>
+        <v>34.124</v>
       </c>
       <c r="AS121">
         <v>46.5</v>
@@ -22730,7 +22730,7 @@
         <v>114.852</v>
       </c>
       <c r="AR122">
-        <v>35572</v>
+        <v>35.572</v>
       </c>
       <c r="AS122">
         <v>44.6</v>
@@ -22915,7 +22915,7 @@
         <v>116.168</v>
       </c>
       <c r="AR123">
-        <v>36040</v>
+        <v>36.04</v>
       </c>
       <c r="AS123">
         <v>45</v>
@@ -23100,7 +23100,7 @@
         <v>125.392</v>
       </c>
       <c r="AR124">
-        <v>35728</v>
+        <v>35.728</v>
       </c>
       <c r="AS124">
         <v>45.3</v>
@@ -23285,7 +23285,7 @@
         <v>121.748</v>
       </c>
       <c r="AR125">
-        <v>39260</v>
+        <v>39.26</v>
       </c>
       <c r="AS125">
         <v>46.4</v>
@@ -23470,7 +23470,7 @@
         <v>129.388</v>
       </c>
       <c r="AR126">
-        <v>40316</v>
+        <v>40.316</v>
       </c>
       <c r="AS126">
         <v>47.2</v>
@@ -23655,7 +23655,7 @@
         <v>132.128</v>
       </c>
       <c r="AR127">
-        <v>43008</v>
+        <v>43.008</v>
       </c>
       <c r="AS127">
         <v>47.6</v>
@@ -23840,7 +23840,7 @@
         <v>133.364</v>
       </c>
       <c r="AR128">
-        <v>42668</v>
+        <v>42.668</v>
       </c>
       <c r="AS128">
         <v>66.3</v>
@@ -24025,7 +24025,7 @@
         <v>143.652</v>
       </c>
       <c r="AR129">
-        <v>43008</v>
+        <v>43.008</v>
       </c>
       <c r="AS129">
         <v>43.1</v>
@@ -24210,7 +24210,7 @@
         <v>145.547</v>
       </c>
       <c r="AR130">
-        <v>50609</v>
+        <v>50.609</v>
       </c>
       <c r="AS130">
         <v>40.7</v>
@@ -24395,7 +24395,7 @@
         <v>146.352</v>
       </c>
       <c r="AR131">
-        <v>45405</v>
+        <v>45.405</v>
       </c>
       <c r="AS131">
         <v>39.2</v>
@@ -24580,7 +24580,7 @@
         <v>152.896</v>
       </c>
       <c r="AR132">
-        <v>41342</v>
+        <v>41.342</v>
       </c>
       <c r="AS132">
         <v>39.7</v>
@@ -24765,7 +24765,7 @@
         <v>155.307</v>
       </c>
       <c r="AR133">
-        <v>44814</v>
+        <v>44.814</v>
       </c>
       <c r="AS133">
         <v>42.3</v>
@@ -24950,7 +24950,7 @@
         <v>154.378</v>
       </c>
       <c r="AR134">
-        <v>43171</v>
+        <v>43.171</v>
       </c>
       <c r="AS134">
         <v>47</v>
@@ -25135,7 +25135,7 @@
         <v>158.02</v>
       </c>
       <c r="AR135">
-        <v>48719</v>
+        <v>48.719</v>
       </c>
       <c r="AS135">
         <v>56.8</v>
@@ -25320,7 +25320,7 @@
         <v>174.229</v>
       </c>
       <c r="AR136">
-        <v>46443</v>
+        <v>46.443</v>
       </c>
       <c r="AS136">
         <v>46.9</v>
@@ -25505,7 +25505,7 @@
         <v>170.506</v>
       </c>
       <c r="AR137">
-        <v>45507</v>
+        <v>45.507</v>
       </c>
       <c r="AS137">
         <v>45.1</v>
@@ -25690,7 +25690,7 @@
         <v>177.772</v>
       </c>
       <c r="AR138">
-        <v>47601</v>
+        <v>47.601</v>
       </c>
       <c r="AS138">
         <v>43.9</v>
@@ -25875,7 +25875,7 @@
         <v>182.692</v>
       </c>
       <c r="AR139">
-        <v>44213</v>
+        <v>44.213</v>
       </c>
       <c r="AS139">
         <v>43.3</v>
@@ -26060,7 +26060,7 @@
         <v>173.33</v>
       </c>
       <c r="AR140">
-        <v>50413</v>
+        <v>50.413</v>
       </c>
       <c r="AS140">
         <v>45</v>
@@ -26245,7 +26245,7 @@
         <v>177.282</v>
       </c>
       <c r="AR141">
-        <v>44947</v>
+        <v>44.947</v>
       </c>
       <c r="AS141">
         <v>51.9</v>
@@ -26430,7 +26430,7 @@
         <v>183.908</v>
       </c>
       <c r="AR142">
-        <v>49943</v>
+        <v>49.943</v>
       </c>
       <c r="AS142">
         <v>56.4</v>
@@ -26615,7 +26615,7 @@
         <v>185.818</v>
       </c>
       <c r="AR143">
-        <v>51172</v>
+        <v>51.172</v>
       </c>
       <c r="AS143">
         <v>60.3</v>
@@ -26800,7 +26800,7 @@
         <v>179.683</v>
       </c>
       <c r="AR144">
-        <v>47383</v>
+        <v>47.383</v>
       </c>
       <c r="AS144">
         <v>61.6</v>
@@ -26985,7 +26985,7 @@
         <v>182.944</v>
       </c>
       <c r="AR145">
-        <v>49225</v>
+        <v>49.225</v>
       </c>
       <c r="AS145">
         <v>63.9</v>
@@ -27170,7 +27170,7 @@
         <v>175.956</v>
       </c>
       <c r="AR146">
-        <v>53557</v>
+        <v>53.557</v>
       </c>
       <c r="AS146">
         <v>55.4</v>
@@ -27355,7 +27355,7 @@
         <v>176.53</v>
       </c>
       <c r="AR147">
-        <v>53237</v>
+        <v>53.237</v>
       </c>
       <c r="AS147">
         <v>51.2</v>
@@ -27540,7 +27540,7 @@
         <v>186.733</v>
       </c>
       <c r="AR148">
-        <v>52165</v>
+        <v>52.165</v>
       </c>
       <c r="AS148">
         <v>49.5</v>
@@ -27725,7 +27725,7 @@
         <v>177.659</v>
       </c>
       <c r="AR149">
-        <v>51704</v>
+        <v>51.704</v>
       </c>
       <c r="AS149">
         <v>48.3</v>
@@ -27910,7 +27910,7 @@
         <v>200.218</v>
       </c>
       <c r="AR150">
-        <v>50937</v>
+        <v>50.937</v>
       </c>
       <c r="AS150">
         <v>47.6</v>
@@ -28095,7 +28095,7 @@
         <v>190.602</v>
       </c>
       <c r="AR151">
-        <v>56121</v>
+        <v>56.121</v>
       </c>
       <c r="AS151">
         <v>47.5</v>
@@ -28280,7 +28280,7 @@
         <v>194.111</v>
       </c>
       <c r="AR152">
-        <v>55528</v>
+        <v>55.528</v>
       </c>
       <c r="AS152">
         <v>47.2</v>
@@ -28465,7 +28465,7 @@
         <v>196.028</v>
       </c>
       <c r="AR153">
-        <v>54619</v>
+        <v>54.619</v>
       </c>
       <c r="AS153">
         <v>47.5</v>
@@ -28650,7 +28650,7 @@
         <v>200.294</v>
       </c>
       <c r="AR154">
-        <v>56613</v>
+        <v>56.613</v>
       </c>
       <c r="AS154">
         <v>48</v>
@@ -28835,7 +28835,7 @@
         <v>203.794</v>
       </c>
       <c r="AR155">
-        <v>58842</v>
+        <v>58.842</v>
       </c>
       <c r="AS155">
         <v>48.7</v>
@@ -29020,7 +29020,7 @@
         <v>205.059</v>
       </c>
       <c r="AR156">
-        <v>56868</v>
+        <v>56.868</v>
       </c>
       <c r="AS156">
         <v>49.8</v>
@@ -29205,7 +29205,7 @@
         <v>208.505</v>
       </c>
       <c r="AR157">
-        <v>58177</v>
+        <v>58.177</v>
       </c>
       <c r="AS157">
         <v>51.8</v>
@@ -29390,7 +29390,7 @@
         <v>256.944</v>
       </c>
       <c r="AR158">
-        <v>58334</v>
+        <v>58.334</v>
       </c>
       <c r="AS158">
         <v>53.4</v>
@@ -29575,7 +29575,7 @@
         <v>274.664</v>
       </c>
       <c r="AR159">
-        <v>59643</v>
+        <v>59.643</v>
       </c>
       <c r="AS159">
         <v>54.3</v>
@@ -29760,7 +29760,7 @@
         <v>263.924</v>
       </c>
       <c r="AR160">
-        <v>67126</v>
+        <v>67.126</v>
       </c>
       <c r="AS160">
         <v>65.90000000000001</v>
@@ -29945,7 +29945,7 @@
         <v>261.944</v>
       </c>
       <c r="AR161">
-        <v>68543</v>
+        <v>68.54300000000001</v>
       </c>
       <c r="AS161">
         <v>54.3</v>
@@ -30130,7 +30130,7 @@
         <v>271.844</v>
       </c>
       <c r="AR162">
-        <v>64721</v>
+        <v>64.721</v>
       </c>
       <c r="AS162">
         <v>53.2</v>
@@ -30315,7 +30315,7 @@
         <v>272.456</v>
       </c>
       <c r="AR163">
-        <v>73737</v>
+        <v>73.73699999999999</v>
       </c>
       <c r="AS163">
         <v>53.4</v>
@@ -30500,7 +30500,7 @@
         <v>283.691</v>
       </c>
       <c r="AR164">
-        <v>74821</v>
+        <v>74.821</v>
       </c>
       <c r="AS164">
         <v>54.4</v>
@@ -30685,7 +30685,7 @@
         <v>297.609</v>
       </c>
       <c r="AR165">
-        <v>75022</v>
+        <v>75.02200000000001</v>
       </c>
       <c r="AS165">
         <v>56</v>
@@ -30870,7 +30870,7 @@
         <v>282.445</v>
       </c>
       <c r="AR166">
-        <v>70503</v>
+        <v>70.503</v>
       </c>
       <c r="AS166">
         <v>58</v>
@@ -31055,7 +31055,7 @@
         <v>277.196</v>
       </c>
       <c r="AR167">
-        <v>69145</v>
+        <v>69.145</v>
       </c>
       <c r="AS167">
         <v>59.5</v>
@@ -31240,7 +31240,7 @@
         <v>237.739</v>
       </c>
       <c r="AR168">
-        <v>65916</v>
+        <v>65.916</v>
       </c>
       <c r="AS168">
         <v>59.7</v>
@@ -31425,7 +31425,7 @@
         <v>239.291</v>
       </c>
       <c r="AR169">
-        <v>70531</v>
+        <v>70.53100000000001</v>
       </c>
       <c r="AS169">
         <v>60.6</v>
@@ -31610,7 +31610,7 @@
         <v>246.248</v>
       </c>
       <c r="AR170">
-        <v>67107</v>
+        <v>67.107</v>
       </c>
       <c r="AS170">
         <v>57.9</v>
@@ -31795,7 +31795,7 @@
         <v>262.324</v>
       </c>
       <c r="AR171">
-        <v>67670</v>
+        <v>67.67</v>
       </c>
       <c r="AS171">
         <v>57.6</v>
@@ -31980,7 +31980,7 @@
         <v>250.54</v>
       </c>
       <c r="AR172">
-        <v>65880</v>
+        <v>65.88</v>
       </c>
       <c r="AS172">
         <v>55.8</v>
@@ -32165,7 +32165,7 @@
         <v>259.562</v>
       </c>
       <c r="AR173">
-        <v>65507</v>
+        <v>65.50700000000001</v>
       </c>
       <c r="AS173">
         <v>58.9</v>
@@ -32350,7 +32350,7 @@
         <v>258.45</v>
       </c>
       <c r="AR174">
-        <v>67564</v>
+        <v>67.56399999999999</v>
       </c>
       <c r="AS174">
         <v>58.9</v>
@@ -32535,7 +32535,7 @@
         <v>270.887</v>
       </c>
       <c r="AR175">
-        <v>63979</v>
+        <v>63.979</v>
       </c>
       <c r="AS175">
         <v>59.6</v>
@@ -32720,7 +32720,7 @@
         <v>269.279</v>
       </c>
       <c r="AR176">
-        <v>68014</v>
+        <v>68.014</v>
       </c>
       <c r="AS176">
         <v>59.5</v>
@@ -32905,7 +32905,7 @@
         <v>269.982</v>
       </c>
       <c r="AR177">
-        <v>65742</v>
+        <v>65.742</v>
       </c>
       <c r="AS177">
         <v>58.9</v>
@@ -33090,7 +33090,7 @@
         <v>291.59</v>
       </c>
       <c r="AR178">
-        <v>65276</v>
+        <v>65.276</v>
       </c>
       <c r="AS178">
         <v>58.2</v>
@@ -33275,7 +33275,7 @@
         <v>307.775</v>
       </c>
       <c r="AR179">
-        <v>67164</v>
+        <v>67.164</v>
       </c>
       <c r="AS179">
         <v>58</v>
@@ -33460,7 +33460,7 @@
         <v>332.4</v>
       </c>
       <c r="AR180">
-        <v>68840</v>
+        <v>68.84</v>
       </c>
       <c r="AS180">
         <v>57.7</v>
@@ -33645,7 +33645,7 @@
         <v>335.611</v>
       </c>
       <c r="AR181">
-        <v>61403</v>
+        <v>61.403</v>
       </c>
       <c r="AS181">
         <v>56.5</v>
@@ -33830,7 +33830,7 @@
         <v>352.188</v>
       </c>
       <c r="AR182">
-        <v>63534</v>
+        <v>63.534</v>
       </c>
       <c r="AS182">
         <v>55.5</v>
@@ -34015,7 +34015,7 @@
         <v>353.442</v>
       </c>
       <c r="AR183">
-        <v>62907</v>
+        <v>62.907</v>
       </c>
       <c r="AS183">
         <v>55.9</v>
@@ -34200,7 +34200,7 @@
         <v>352.909</v>
       </c>
       <c r="AR184">
-        <v>66760</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="AS184">
         <v>57.2</v>
@@ -34385,7 +34385,7 @@
         <v>366.274</v>
       </c>
       <c r="AR185">
-        <v>64462</v>
+        <v>64.462</v>
       </c>
       <c r="AS185">
         <v>58.1</v>
@@ -34570,7 +34570,7 @@
         <v>359.556</v>
       </c>
       <c r="AR186">
-        <v>67049</v>
+        <v>67.04900000000001</v>
       </c>
       <c r="AS186">
         <v>60.1</v>
@@ -34755,7 +34755,7 @@
         <v>364.761</v>
       </c>
       <c r="AR187">
-        <v>67197</v>
+        <v>67.197</v>
       </c>
       <c r="AS187">
         <v>61.8</v>
@@ -34940,7 +34940,7 @@
         <v>377.98</v>
       </c>
       <c r="AR188">
-        <v>68094</v>
+        <v>68.09399999999999</v>
       </c>
       <c r="AS188">
         <v>62.5</v>
@@ -35125,7 +35125,7 @@
         <v>387.911</v>
       </c>
       <c r="AR189">
-        <v>66717</v>
+        <v>66.717</v>
       </c>
       <c r="AS189">
         <v>60.4</v>
@@ -35310,7 +35310,7 @@
         <v>375.901</v>
       </c>
       <c r="AR190">
-        <v>67197</v>
+        <v>67.197</v>
       </c>
       <c r="AS190">
         <v>58.9</v>
@@ -35594,7 +35594,7 @@
         <v>353.506</v>
       </c>
       <c r="AR191">
-        <v>68784</v>
+        <v>68.78400000000001</v>
       </c>
       <c r="AS191">
         <v>57.6</v>
@@ -35878,7 +35878,7 @@
         <v>376.693</v>
       </c>
       <c r="AR192">
-        <v>63911</v>
+        <v>63.911</v>
       </c>
       <c r="AS192">
         <v>61.3</v>
@@ -36165,7 +36165,7 @@
         <v>382.986</v>
       </c>
       <c r="AR193">
-        <v>64776</v>
+        <v>64.776</v>
       </c>
       <c r="AS193">
         <v>59.4</v>
@@ -36482,7 +36482,7 @@
         <v>389.195</v>
       </c>
       <c r="AR194">
-        <v>65084</v>
+        <v>65.084</v>
       </c>
       <c r="AS194">
         <v>57.6</v>
@@ -36820,7 +36820,7 @@
         <v>386.857</v>
       </c>
       <c r="AR195">
-        <v>64961</v>
+        <v>64.961</v>
       </c>
       <c r="AS195">
         <v>57.2</v>
@@ -37161,7 +37161,7 @@
         <v>392.516</v>
       </c>
       <c r="AR196">
-        <v>68573</v>
+        <v>68.57299999999999</v>
       </c>
       <c r="AS196">
         <v>57.3</v>
@@ -37502,7 +37502,7 @@
         <v>389.624</v>
       </c>
       <c r="AR197">
-        <v>64617</v>
+        <v>64.617</v>
       </c>
       <c r="AS197">
         <v>78.90000000000001</v>
@@ -37843,7 +37843,7 @@
         <v>404.529</v>
       </c>
       <c r="AR198">
-        <v>67605</v>
+        <v>67.605</v>
       </c>
       <c r="AS198">
         <v>70.7</v>
@@ -38193,7 +38193,7 @@
         <v>419.672</v>
       </c>
       <c r="AR199">
-        <v>66614</v>
+        <v>66.614</v>
       </c>
       <c r="AS199">
         <v>60.5</v>
@@ -38543,7 +38543,7 @@
         <v>418.824</v>
       </c>
       <c r="AR200">
-        <v>68895</v>
+        <v>68.895</v>
       </c>
       <c r="AS200">
         <v>81.40000000000001</v>
@@ -38893,7 +38893,7 @@
         <v>411.409</v>
       </c>
       <c r="AR201">
-        <v>69791</v>
+        <v>69.791</v>
       </c>
       <c r="AS201">
         <v>80.5</v>
@@ -39243,7 +39243,7 @@
         <v>423.429</v>
       </c>
       <c r="AR202">
-        <v>72240</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="AS202">
         <v>74.5</v>
@@ -39593,7 +39593,7 @@
         <v>512.64</v>
       </c>
       <c r="AR203">
-        <v>72525</v>
+        <v>72.52500000000001</v>
       </c>
       <c r="AS203">
         <v>1085.9</v>
@@ -39946,7 +39946,7 @@
         <v>486.072</v>
       </c>
       <c r="AR204">
-        <v>73845</v>
+        <v>73.845</v>
       </c>
       <c r="AS204">
         <v>1212.9</v>
@@ -40269,7 +40269,7 @@
         <v>504.62142385961</v>
       </c>
       <c r="AR205">
-        <v>74408.02956971426</v>
+        <v>74.40802956971426</v>
       </c>
       <c r="AS205">
         <v>1216.872139383528</v>
@@ -40580,7 +40580,7 @@
         <v>523.17084771922</v>
       </c>
       <c r="AR206">
-        <v>74706.68003712791</v>
+        <v>74.70668003712791</v>
       </c>
       <c r="AS206">
         <v>1220.995358553434</v>
@@ -40891,7 +40891,7 @@
         <v>541.72027157883</v>
       </c>
       <c r="AR207">
-        <v>75049.39368825832</v>
+        <v>75.04939368825832</v>
       </c>
       <c r="AS207">
         <v>1225.408147313898</v>
@@ -41202,7 +41202,7 @@
         <v>560.2696954384398</v>
       </c>
       <c r="AR208">
-        <v>75450.85825101107</v>
+        <v>75.45085825101107</v>
       </c>
       <c r="AS208">
         <v>1230.173455575912</v>
@@ -41513,7 +41513,7 @@
         <v>554.6929574085671</v>
       </c>
       <c r="AR209">
-        <v>76029.95588093097</v>
+        <v>76.02995588093096</v>
       </c>
       <c r="AS209">
         <v>1235.310168312772</v>
@@ -41824,7 +41824,7 @@
         <v>549.1162193786943</v>
       </c>
       <c r="AR210">
-        <v>76689.54672196403</v>
+        <v>76.68954672196401</v>
       </c>
       <c r="AS210">
         <v>1240.642025773704</v>
@@ -42135,7 +42135,7 @@
         <v>543.5394813488216</v>
       </c>
       <c r="AR211">
-        <v>77357.43394130678</v>
+        <v>77.35743394130677</v>
       </c>
       <c r="AS211">
         <v>1246.062013110024</v>
@@ -42446,7 +42446,7 @@
         <v>537.9627433189488</v>
       </c>
       <c r="AR212">
-        <v>78099.376013655</v>
+        <v>78.09937601365499</v>
       </c>
       <c r="AS212">
         <v>1251.551245348433</v>
@@ -42757,7 +42757,7 @@
         <v>532.4407379612392</v>
       </c>
       <c r="AR213">
-        <v>78782.0033169868</v>
+        <v>78.78200331698679</v>
       </c>
       <c r="AS213">
         <v>1257.109722488932</v>
@@ -43068,7 +43068,7 @@
         <v>526.9187326035294</v>
       </c>
       <c r="AR214">
-        <v>79540.17897405858</v>
+        <v>79.54017897405858</v>
       </c>
       <c r="AS214">
         <v>1262.75003451372</v>
@@ -43379,7 +43379,7 @@
         <v>521.3967272458196</v>
       </c>
       <c r="AR215">
-        <v>80235.80346542266</v>
+        <v>80.23580346542266</v>
       </c>
       <c r="AS215">
         <v>1268.415526502904</v>
@@ -43690,7 +43690,7 @@
         <v>515.87472188811</v>
       </c>
       <c r="AR216">
-        <v>81007.6852011812</v>
+        <v>81.0076852011812</v>
       </c>
       <c r="AS216">
         <v>1274.162853376376</v>
@@ -44001,7 +44001,7 @@
         <v>521.6878529353728</v>
       </c>
       <c r="AR217">
-        <v>81788.45238105416</v>
+        <v>81.78845238105416</v>
       </c>
       <c r="AS217">
         <v>1279.992015134136</v>
@@ -44312,7 +44312,7 @@
         <v>527.5009839826356</v>
       </c>
       <c r="AR218">
-        <v>82576.97684056567</v>
+        <v>82.57697684056566</v>
       </c>
       <c r="AS218">
         <v>1285.884126802888</v>
@@ -44623,7 +44623,7 @@
         <v>533.3141150298984</v>
       </c>
       <c r="AR219">
-        <v>83370.08497596704</v>
+        <v>83.37008497596703</v>
       </c>
       <c r="AS219">
         <v>1291.788828453838</v>
@@ -44934,7 +44934,7 @@
         <v>539.1272460771612</v>
       </c>
       <c r="AR220">
-        <v>84169.00767733625</v>
+        <v>84.16900767733624</v>
       </c>
       <c r="AS220">
         <v>1297.725005060283</v>
@@ -45245,7 +45245,7 @@
         <v>546.4911361690445</v>
       </c>
       <c r="AR221">
-        <v>84973.77515034392</v>
+        <v>84.97377515034391</v>
       </c>
       <c r="AS221">
         <v>1303.692656622223</v>
@@ -45556,7 +45556,7 @@
         <v>553.8550262609276</v>
       </c>
       <c r="AR222">
-        <v>85853.12395423675</v>
+        <v>85.85312395423675</v>
       </c>
       <c r="AS222">
         <v>1309.672898166362</v>
@@ -45867,7 +45867,7 @@
         <v>561.2189163528109</v>
       </c>
       <c r="AR223">
-        <v>86664.62150374148</v>
+        <v>86.66462150374147</v>
       </c>
       <c r="AS223">
         <v>1315.621664755005</v>
@@ -46178,7 +46178,7 @@
         <v>568.5828064446941</v>
       </c>
       <c r="AR224">
-        <v>87480.34510922838</v>
+        <v>87.48034510922837</v>
       </c>
       <c r="AS224">
         <v>1321.576726334748</v>
@@ -46489,7 +46489,7 @@
         <v>576.2456411792966</v>
       </c>
       <c r="AR225">
-        <v>88299.88412188915</v>
+        <v>88.29988412188914</v>
       </c>
       <c r="AS225">
         <v>1327.53178791449</v>
@@ -46800,7 +46800,7 @@
         <v>583.9084759138992</v>
       </c>
       <c r="AR226">
-        <v>89194.02941883428</v>
+        <v>89.19402941883428</v>
       </c>
       <c r="AS226">
         <v>1333.480554503133</v>
@@ -47111,7 +47111,7 @@
         <v>591.5713106485017</v>
       </c>
       <c r="AR227">
-        <v>90019.40841823212</v>
+        <v>90.01940841823212</v>
       </c>
       <c r="AS227">
         <v>1339.40414112738</v>
@@ -47422,7 +47422,7 @@
         <v>599.2341453831042</v>
       </c>
       <c r="AR228">
-        <v>90919.15656957484</v>
+        <v>90.91915656957484</v>
       </c>
       <c r="AS228">
         <v>1345.308842778329</v>
@@ -47733,7 +47733,7 @@
         <v>607.193579074476</v>
       </c>
       <c r="AR229">
-        <v>91752.43494215577</v>
+        <v>91.75243494215576</v>
       </c>
       <c r="AS229">
         <v>1351.232429402576</v>
@@ -48044,7 +48044,7 @@
         <v>615.153012765848</v>
       </c>
       <c r="AR230">
-        <v>92592.07327394167</v>
+        <v>92.59207327394166</v>
       </c>
       <c r="AS230">
         <v>1357.193785973418</v>
@@ -48355,7 +48355,7 @@
         <v>623.1124464572199</v>
       </c>
       <c r="AR231">
-        <v>93509.6119304842</v>
+        <v>93.5096119304842</v>
       </c>
       <c r="AS231">
         <v>1363.174027517557</v>
@@ -48666,7 +48666,7 @@
         <v>631.0718801485918</v>
       </c>
       <c r="AR232">
-        <v>94361.53013552503</v>
+        <v>94.36153013552503</v>
       </c>
       <c r="AS232">
         <v>1369.198333999389</v>
@@ -48977,7 +48977,7 @@
         <v>639.3320829050884</v>
       </c>
       <c r="AR233">
-        <v>95295.07943804923</v>
+        <v>95.29507943804923</v>
       </c>
       <c r="AS233">
         <v>1375.285590392212</v>
@@ -49288,7 +49288,7 @@
         <v>647.5922856615852</v>
       </c>
       <c r="AR234">
-        <v>96161.59999718028</v>
+        <v>96.16159999718028</v>
       </c>
       <c r="AS234">
         <v>1381.404321740531</v>
@@ -49599,7 +49599,7 @@
         <v>655.8524884180816</v>
       </c>
       <c r="AR235">
-        <v>97111.38345204201</v>
+        <v>97.11138345204201</v>
       </c>
       <c r="AS235">
         <v>1387.598592982039</v>
@@ -49910,7 +49910,7 @@
         <v>664.1126911745782</v>
       </c>
       <c r="AR236">
-        <v>98069.31926877833</v>
+        <v>98.06931926877833</v>
       </c>
       <c r="AS236">
         <v>1393.843224152339</v>
@@ -50221,7 +50221,7 @@
         <v>672.8584509226929</v>
       </c>
       <c r="AR237">
-        <v>98960.71585388531</v>
+        <v>98.9607158538853</v>
       </c>
       <c r="AS237">
         <v>1400.138215251432</v>
@@ -50532,7 +50532,7 @@
         <v>681.6042106708076</v>
       </c>
       <c r="AR238">
-        <v>99934.34358672275</v>
+        <v>99.93434358672275</v>
       </c>
       <c r="AS238">
         <v>1406.477271288219</v>
@@ -50843,7 +50843,7 @@
         <v>690.3499704189223</v>
       </c>
       <c r="AR239">
-        <v>100839.5214125414</v>
+        <v>100.8395214125414</v>
       </c>
       <c r="AS239">
         <v>1412.847802280502</v>
@@ -51154,7 +51154,7 @@
         <v>699.0957301670371</v>
       </c>
       <c r="AR240">
-        <v>101823.194525554</v>
+        <v>101.823194525554</v>
       </c>
       <c r="AS240">
         <v>1419.199448299487</v>
@@ -51465,7 +51465,7 @@
         <v>708.6431932464548</v>
       </c>
       <c r="AR241">
-        <v>102811.6128835418</v>
+        <v>102.8116128835418</v>
       </c>
       <c r="AS241">
         <v>1425.551094318472</v>
@@ -51776,7 +51776,7 @@
         <v>718.1906563258725</v>
       </c>
       <c r="AR242">
-        <v>103728.336626975</v>
+        <v>103.7283366269751</v>
       </c>
       <c r="AS242">
         <v>1431.902740337457</v>
@@ -52084,7 +52084,7 @@
         <v>727.7381194052901</v>
       </c>
       <c r="AR243">
-        <v>104724.5401172757</v>
+        <v>104.7245401172757</v>
       </c>
       <c r="AS243">
         <v>1438.235501383145</v>
@@ -52392,7 +52392,7 @@
         <v>737.2855824847078</v>
       </c>
       <c r="AR244">
-        <v>105723.1829490315</v>
+        <v>105.7231829490315</v>
       </c>
       <c r="AS244">
         <v>1444.536787473338</v>
